--- a/data/trans_orig/P6907S1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6907S1-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A763AE12-BDD1-4D97-838B-D9ACCD466238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81032319-9A3C-4178-B3D8-468B53F78D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F5695AC3-B474-4367-9AE5-A081739CFC67}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C138BCE4-BAA5-47AB-8AED-1FE9ED92755D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="370">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>20,19%</t>
   </si>
   <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
   </si>
   <si>
     <t>14,06%</t>
@@ -89,16 +89,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>56,83%</t>
+    <t>56,87%</t>
   </si>
   <si>
     <t>18,43%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,16 +107,16 @@
     <t>79,81%</t>
   </si>
   <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
   </si>
   <si>
     <t>85,94%</t>
   </si>
   <si>
-    <t>43,17%</t>
+    <t>43,13%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,10 +125,10 @@
     <t>81,57%</t>
   </si>
   <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,49 +140,49 @@
     <t>6,26%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
   </si>
   <si>
     <t>3,8%</t>
   </si>
   <si>
-    <t>15,59%</t>
+    <t>18,64%</t>
   </si>
   <si>
     <t>5,55%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
   </si>
   <si>
     <t>93,74%</t>
   </si>
   <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
   </si>
   <si>
     <t>96,2%</t>
   </si>
   <si>
-    <t>84,41%</t>
+    <t>81,36%</t>
   </si>
   <si>
     <t>94,45%</t>
   </si>
   <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -191,55 +191,55 @@
     <t>11,81%</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
   </si>
   <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
   </si>
   <si>
     <t>88,19%</t>
   </si>
   <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
   </si>
   <si>
     <t>88,11%</t>
   </si>
   <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>88,17%</t>
   </si>
   <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -248,55 +248,55 @@
     <t>7,59%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
   </si>
   <si>
     <t>8,25%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
   </si>
   <si>
     <t>7,78%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
   </si>
   <si>
     <t>92,41%</t>
   </si>
   <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
   </si>
   <si>
     <t>91,75%</t>
   </si>
   <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
   </si>
   <si>
     <t>92,22%</t>
   </si>
   <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -305,874 +305,850 @@
     <t>7,92%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
   </si>
   <si>
     <t>13,17%</t>
   </si>
   <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
   </si>
   <si>
     <t>9,98%</t>
   </si>
   <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
   </si>
   <si>
     <t>92,08%</t>
   </si>
   <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
   </si>
   <si>
     <t>86,83%</t>
   </si>
   <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
   </si>
   <si>
     <t>90,02%</t>
   </si>
   <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
   </si>
   <si>
     <t>9,21%</t>
   </si>
   <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
   </si>
   <si>
     <t>10,73%</t>
   </si>
   <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2012 (Tasa respuesta: 3,57%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
     <t>7,03%</t>
   </si>
   <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2015 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
   </si>
   <si>
     <t>12,25%</t>
   </si>
   <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
   </si>
   <si>
     <t>87,75%</t>
   </si>
   <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2012 (Tasa respuesta: 3,57%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
   </si>
   <si>
     <t>92,49%</t>
   </si>
   <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
   </si>
   <si>
     <t>4,79%</t>
   </si>
   <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
   </si>
   <si>
     <t>95,21%</t>
   </si>
   <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
     <t>91,38%</t>
   </si>
   <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
   </si>
   <si>
     <t>10,76%</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
+    <t>7,87%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
   </si>
   <si>
     <t>9,64%</t>
   </si>
   <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
   </si>
   <si>
     <t>89,24%</t>
   </si>
   <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
+    <t>92,13%</t>
   </si>
   <si>
     <t>91,46%</t>
   </si>
   <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
   </si>
   <si>
     <t>90,36%</t>
   </si>
   <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
   </si>
 </sst>
 </file>
@@ -1584,7 +1560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555113DC-4E0D-4861-AA13-FB5BF84C284C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAE65AD-046E-45F2-A918-065415E9BE28}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2501,10 +2477,10 @@
         <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -2513,13 +2489,13 @@
         <v>67134</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,13 +2510,13 @@
         <v>428797</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>192</v>
@@ -2549,13 +2525,13 @@
         <v>196496</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="M20" s="7">
         <v>602</v>
@@ -2564,13 +2540,13 @@
         <v>625293</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,7 +2602,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2647,7 +2623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77573B8-7446-492A-9D37-B4558A5C06AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED70AC4-DFFE-4E5D-8C5B-9CF53CAD6E20}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2664,7 +2640,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2774,10 +2750,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2789,10 +2765,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2804,10 +2780,10 @@
         <v>15</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,7 +2801,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -2840,7 +2816,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -2855,7 +2831,7 @@
         <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>30</v>
@@ -2926,13 +2902,13 @@
         <v>2899</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2944,10 +2920,10 @@
         <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2956,13 +2932,13 @@
         <v>2899</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,13 +2953,13 @@
         <v>29067</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -2995,7 +2971,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -3007,13 +2983,13 @@
         <v>43913</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3057,13 @@
         <v>2071</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3099,10 +3075,10 @@
         <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3111,13 +3087,13 @@
         <v>2071</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,10 +3108,10 @@
         <v>31939</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -3150,7 +3126,7 @@
         <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -3162,10 +3138,10 @@
         <v>56727</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>26</v>
@@ -3236,13 +3212,13 @@
         <v>1934</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3251,13 +3227,13 @@
         <v>998</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3266,13 +3242,13 @@
         <v>2932</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,10 +3263,10 @@
         <v>40000</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -3302,10 +3278,10 @@
         <v>30239</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -3317,13 +3293,13 @@
         <v>70239</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,13 +3367,13 @@
         <v>923</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3406,13 +3382,13 @@
         <v>1852</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3421,13 +3397,13 @@
         <v>2774</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,10 +3418,10 @@
         <v>31330</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -3457,7 +3433,7 @@
         <v>24472</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>178</v>
@@ -3564,10 +3540,10 @@
         <v>185</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -3576,13 +3552,13 @@
         <v>10676</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>189</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3573,13 @@
         <v>134750</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H20" s="7">
         <v>91</v>
@@ -3612,13 +3588,13 @@
         <v>97312</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
       <c r="M20" s="7">
         <v>221</v>
@@ -3627,13 +3603,13 @@
         <v>232062</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>198</v>
+        <v>66</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,7 +3665,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3710,7 +3686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64236267-AF2B-4564-926D-51F066C06104}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CA764F-6C9E-44BE-A80D-6ABC45C01637}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3727,7 +3703,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3837,10 +3813,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3849,13 +3825,13 @@
         <v>815</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3864,13 +3840,13 @@
         <v>815</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,7 +3864,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -3900,10 +3876,10 @@
         <v>5315</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>207</v>
+        <v>97</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -3915,10 +3891,10 @@
         <v>13364</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -3989,13 +3965,13 @@
         <v>1247</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4007,10 +3983,10 @@
         <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4019,13 +3995,13 @@
         <v>1247</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,10 +4016,10 @@
         <v>45377</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>215</v>
+        <v>139</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -4058,7 +4034,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -4070,10 +4046,10 @@
         <v>69162</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>26</v>
@@ -4144,13 +4120,13 @@
         <v>3143</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4159,13 +4135,13 @@
         <v>3425</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4174,13 +4150,13 @@
         <v>6568</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4171,13 @@
         <v>93841</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H11" s="7">
         <v>49</v>
@@ -4210,13 +4186,13 @@
         <v>52127</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="M11" s="7">
         <v>131</v>
@@ -4225,13 +4201,13 @@
         <v>145967</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,13 +4275,13 @@
         <v>3064</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4317,10 +4293,10 @@
         <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -4329,13 +4305,13 @@
         <v>3064</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>137</v>
+        <v>233</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,13 +4326,13 @@
         <v>106871</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H14" s="7">
         <v>64</v>
@@ -4368,7 +4344,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -4380,13 +4356,13 @@
         <v>171618</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>240</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,13 +4430,13 @@
         <v>4749</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4469,13 +4445,13 @@
         <v>1095</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -4484,13 +4460,13 @@
         <v>5844</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>253</v>
+        <v>159</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,13 +4481,13 @@
         <v>83661</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H17" s="7">
         <v>60</v>
@@ -4520,10 +4496,10 @@
         <v>64988</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -4535,13 +4511,13 @@
         <v>148649</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>262</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,13 +4585,13 @@
         <v>12203</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -4624,13 +4600,13 @@
         <v>5334</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -4639,13 +4615,13 @@
         <v>17538</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,13 +4636,13 @@
         <v>337798</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>202</v>
@@ -4675,13 +4651,13 @@
         <v>210964</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>512</v>
@@ -4690,13 +4666,13 @@
         <v>548761</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,7 +4728,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4773,7 +4749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C017E5AF-80AC-4077-BC52-92913D2BCB01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F2F399-62A0-4113-8C2F-C76735EF6215}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4790,7 +4766,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4897,13 +4873,13 @@
         <v>2184</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4915,10 +4891,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4927,13 +4903,13 @@
         <v>2184</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,10 +4924,10 @@
         <v>12029</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -4966,7 +4942,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -4978,10 +4954,10 @@
         <v>23319</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -5052,13 +5028,13 @@
         <v>7562</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>293</v>
+        <v>75</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -5067,13 +5043,13 @@
         <v>1638</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -5082,13 +5058,13 @@
         <v>9201</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,13 +5079,13 @@
         <v>52750</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>303</v>
+        <v>85</v>
       </c>
       <c r="H8" s="7">
         <v>70</v>
@@ -5118,13 +5094,13 @@
         <v>46356</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="M8" s="7">
         <v>120</v>
@@ -5133,13 +5109,13 @@
         <v>99105</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5183,13 @@
         <v>14911</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -5222,13 +5198,13 @@
         <v>5977</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>133</v>
+        <v>306</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -5237,13 +5213,13 @@
         <v>20887</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,13 +5234,13 @@
         <v>101539</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="H11" s="7">
         <v>138</v>
@@ -5273,13 +5249,13 @@
         <v>103255</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>141</v>
+        <v>316</v>
       </c>
       <c r="M11" s="7">
         <v>235</v>
@@ -5288,13 +5264,13 @@
         <v>204795</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,13 +5338,13 @@
         <v>4886</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>183</v>
+        <v>321</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -5377,13 +5353,13 @@
         <v>12991</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -5392,13 +5368,13 @@
         <v>17877</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,13 +5389,13 @@
         <v>53151</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>193</v>
+        <v>331</v>
       </c>
       <c r="H14" s="7">
         <v>73</v>
@@ -5428,13 +5404,13 @@
         <v>66787</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M14" s="7">
         <v>126</v>
@@ -5443,13 +5419,13 @@
         <v>119939</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,13 +5493,13 @@
         <v>8443</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>343</v>
+        <v>69</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -5532,13 +5508,13 @@
         <v>10254</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -5547,13 +5523,13 @@
         <v>18697</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,13 +5544,13 @@
         <v>95563</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>135</v>
@@ -5583,13 +5559,13 @@
         <v>102662</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="M17" s="7">
         <v>228</v>
@@ -5598,13 +5574,13 @@
         <v>198224</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5672,13 +5648,13 @@
         <v>37986</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -5687,13 +5663,13 @@
         <v>30860</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="M19" s="7">
         <v>76</v>
@@ -5702,13 +5678,13 @@
         <v>68846</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,13 +5699,13 @@
         <v>315032</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="H20" s="7">
         <v>433</v>
@@ -5738,13 +5714,13 @@
         <v>330351</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="M20" s="7">
         <v>736</v>
@@ -5753,13 +5729,13 @@
         <v>645382</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,7 +5791,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6907S1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6907S1-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81032319-9A3C-4178-B3D8-468B53F78D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEC4D69E-80CD-471E-B370-F6A89A3BCA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C138BCE4-BAA5-47AB-8AED-1FE9ED92755D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A18901C9-5C45-458E-84CF-E696FE9A514D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -77,10 +77,10 @@
     <t>20,19%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
   </si>
   <si>
     <t>14,06%</t>
@@ -89,16 +89,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>56,87%</t>
+    <t>56,92%</t>
   </si>
   <si>
     <t>18,43%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,16 +107,16 @@
     <t>79,81%</t>
   </si>
   <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
   </si>
   <si>
     <t>85,94%</t>
   </si>
   <si>
-    <t>43,13%</t>
+    <t>43,08%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,972 +125,984 @@
     <t>81,57%</t>
   </si>
   <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
   </si>
   <si>
     <t>3,8%</t>
   </si>
   <si>
-    <t>18,64%</t>
+    <t>18,89%</t>
   </si>
   <si>
     <t>5,55%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
   </si>
   <si>
     <t>93,74%</t>
   </si>
   <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
   </si>
   <si>
     <t>96,2%</t>
   </si>
   <si>
-    <t>81,36%</t>
+    <t>81,11%</t>
   </si>
   <si>
     <t>94,45%</t>
   </si>
   <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>11,81%</t>
   </si>
   <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
   </si>
   <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
   </si>
   <si>
     <t>88,19%</t>
   </si>
   <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
   </si>
   <si>
     <t>88,11%</t>
   </si>
   <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
   </si>
   <si>
     <t>88,17%</t>
   </si>
   <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>7,59%</t>
   </si>
   <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2012 (Tasa respuesta: 3,57%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
   </si>
   <si>
     <t>96,55%</t>
   </si>
   <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2012 (Tasa respuesta: 3,57%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
     <t>90,92%</t>
   </si>
   <si>
-    <t>83,4%</t>
-  </si>
-  <si>
     <t>95,21%</t>
   </si>
   <si>
@@ -1106,9 +1118,6 @@
     <t>10,76%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
     <t>8,54%</t>
   </si>
   <si>
@@ -1121,18 +1130,12 @@
     <t>9,64%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
     <t>12,26%</t>
   </si>
   <si>
     <t>89,24%</t>
   </si>
   <si>
-    <t>92,13%</t>
-  </si>
-  <si>
     <t>91,46%</t>
   </si>
   <si>
@@ -1146,9 +1149,6 @@
   </si>
   <si>
     <t>87,74%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
   </si>
 </sst>
 </file>
@@ -1560,7 +1560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAE65AD-046E-45F2-A918-065415E9BE28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D940F5-E80D-4CBC-B79B-63CD9071DB4A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2322,10 +2322,10 @@
         <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -2334,13 +2334,13 @@
         <v>22518</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,13 +2355,13 @@
         <v>126192</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>74</v>
@@ -2370,13 +2370,13 @@
         <v>76890</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="M17" s="7">
         <v>200</v>
@@ -2385,13 +2385,13 @@
         <v>203082</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,13 +2459,13 @@
         <v>43508</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -2474,13 +2474,13 @@
         <v>23625</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -2489,13 +2489,13 @@
         <v>67134</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,13 +2510,13 @@
         <v>428797</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>192</v>
@@ -2525,13 +2525,13 @@
         <v>196496</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M20" s="7">
         <v>602</v>
@@ -2623,7 +2623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED70AC4-DFFE-4E5D-8C5B-9CF53CAD6E20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C11667-0001-4F6D-BBD0-B9C969617B41}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3540,10 +3540,10 @@
         <v>185</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>15</v>
+        <v>186</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -3552,13 +3552,13 @@
         <v>10676</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>56</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3573,13 @@
         <v>134750</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H20" s="7">
         <v>91</v>
@@ -3588,13 +3588,13 @@
         <v>97312</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c r="M20" s="7">
         <v>221</v>
@@ -3603,13 +3603,13 @@
         <v>232062</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,7 +3686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CA764F-6C9E-44BE-A80D-6ABC45C01637}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3D1CB7-1764-420E-B5CF-129362E51FAC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3703,7 +3703,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3816,7 +3816,7 @@
         <v>123</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3825,13 +3825,13 @@
         <v>815</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>89</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3840,13 +3840,13 @@
         <v>815</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,7 +3864,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -3876,10 +3876,10 @@
         <v>5315</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -3891,10 +3891,10 @@
         <v>13364</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -3965,13 +3965,13 @@
         <v>1247</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3995,13 +3995,13 @@
         <v>1247</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>207</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,10 +4016,10 @@
         <v>45377</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -4046,10 +4046,10 @@
         <v>69162</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>26</v>
@@ -4120,13 +4120,13 @@
         <v>3143</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4135,13 +4135,13 @@
         <v>3425</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4150,13 +4150,13 @@
         <v>6568</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4171,13 @@
         <v>93841</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="H11" s="7">
         <v>49</v>
@@ -4186,13 +4186,13 @@
         <v>52127</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M11" s="7">
         <v>131</v>
@@ -4201,13 +4201,13 @@
         <v>145967</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,13 +4275,13 @@
         <v>3064</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4296,7 +4296,7 @@
         <v>123</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -4305,13 +4305,13 @@
         <v>3064</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,13 +4326,13 @@
         <v>106871</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="H14" s="7">
         <v>64</v>
@@ -4344,7 +4344,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -4356,13 +4356,13 @@
         <v>171618</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,13 +4430,13 @@
         <v>4749</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>244</v>
+        <v>72</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4445,13 +4445,13 @@
         <v>1095</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -4460,13 +4460,13 @@
         <v>5844</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>159</v>
+        <v>254</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,13 +4481,13 @@
         <v>83661</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>252</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>60</v>
@@ -4496,10 +4496,10 @@
         <v>64988</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -4511,13 +4511,13 @@
         <v>148649</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,13 +4585,13 @@
         <v>12203</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -4600,13 +4600,13 @@
         <v>5334</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -4615,13 +4615,13 @@
         <v>17538</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,13 +4636,13 @@
         <v>337798</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H20" s="7">
         <v>202</v>
@@ -4651,13 +4651,13 @@
         <v>210964</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M20" s="7">
         <v>512</v>
@@ -4666,13 +4666,13 @@
         <v>548761</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,7 +4749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F2F399-62A0-4113-8C2F-C76735EF6215}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB343D2-4A96-4C68-964E-ED81F230589D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4766,7 +4766,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4873,13 +4873,13 @@
         <v>2184</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4894,7 +4894,7 @@
         <v>123</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4903,13 +4903,13 @@
         <v>2184</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,10 +4924,10 @@
         <v>12029</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -4942,7 +4942,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -4954,10 +4954,10 @@
         <v>23319</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -5028,13 +5028,13 @@
         <v>7562</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>75</v>
+        <v>291</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -5043,13 +5043,13 @@
         <v>1638</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -5058,13 +5058,13 @@
         <v>9201</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,13 +5079,13 @@
         <v>52750</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>85</v>
+        <v>301</v>
       </c>
       <c r="H8" s="7">
         <v>70</v>
@@ -5094,13 +5094,13 @@
         <v>46356</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M8" s="7">
         <v>120</v>
@@ -5109,13 +5109,13 @@
         <v>99105</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,13 +5183,13 @@
         <v>14911</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -5198,13 +5198,13 @@
         <v>5977</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -5213,13 +5213,13 @@
         <v>20887</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5234,13 +5234,13 @@
         <v>101539</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="H11" s="7">
         <v>138</v>
@@ -5249,13 +5249,13 @@
         <v>103255</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="M11" s="7">
         <v>235</v>
@@ -5264,13 +5264,13 @@
         <v>204795</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,13 +5338,13 @@
         <v>4886</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -5353,13 +5353,13 @@
         <v>12991</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>324</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -5368,13 +5368,13 @@
         <v>17877</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5389,13 +5389,13 @@
         <v>53151</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="H14" s="7">
         <v>73</v>
@@ -5404,13 +5404,13 @@
         <v>66787</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>334</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>126</v>
@@ -5419,13 +5419,13 @@
         <v>119939</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,13 +5493,13 @@
         <v>8443</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>69</v>
+        <v>343</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -5508,13 +5508,13 @@
         <v>10254</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>157</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -5523,13 +5523,13 @@
         <v>18697</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5544,13 @@
         <v>95563</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="H17" s="7">
         <v>135</v>
@@ -5559,13 +5559,13 @@
         <v>102662</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>349</v>
+        <v>164</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M17" s="7">
         <v>228</v>
@@ -5574,13 +5574,13 @@
         <v>198224</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,13 +5648,13 @@
         <v>37986</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>355</v>
+        <v>187</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -5663,13 +5663,13 @@
         <v>30860</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M19" s="7">
         <v>76</v>
@@ -5678,13 +5678,13 @@
         <v>68846</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>360</v>
+        <v>56</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5699,13 @@
         <v>315032</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>363</v>
+        <v>195</v>
       </c>
       <c r="H20" s="7">
         <v>433</v>
@@ -5714,13 +5714,13 @@
         <v>330351</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>736</v>
@@ -5729,13 +5729,13 @@
         <v>645382</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>369</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6907S1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6907S1-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEC4D69E-80CD-471E-B370-F6A89A3BCA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EB27282-A90A-48AF-8E57-568BA5E85261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A18901C9-5C45-458E-84CF-E696FE9A514D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C53BE554-DF72-492B-A107-63D9982750F3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="378">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -71,16 +71,16 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>20,19%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
   </si>
   <si>
     <t>14,06%</t>
@@ -89,16 +89,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>56,92%</t>
+    <t>56,83%</t>
   </si>
   <si>
     <t>18,43%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,16 +107,16 @@
     <t>79,81%</t>
   </si>
   <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
   </si>
   <si>
     <t>85,94%</t>
   </si>
   <si>
-    <t>43,08%</t>
+    <t>43,17%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,10 +125,10 @@
     <t>81,57%</t>
   </si>
   <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,49 +140,49 @@
     <t>6,26%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
   </si>
   <si>
     <t>3,8%</t>
   </si>
   <si>
-    <t>18,89%</t>
+    <t>15,59%</t>
   </si>
   <si>
     <t>5,55%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
   </si>
   <si>
     <t>93,74%</t>
   </si>
   <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
   </si>
   <si>
     <t>96,2%</t>
   </si>
   <si>
-    <t>81,11%</t>
+    <t>84,41%</t>
   </si>
   <si>
     <t>94,45%</t>
   </si>
   <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -191,55 +191,55 @@
     <t>11,81%</t>
   </si>
   <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
   </si>
   <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
   </si>
   <si>
     <t>88,19%</t>
   </si>
   <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
   </si>
   <si>
     <t>88,11%</t>
   </si>
   <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
   </si>
   <si>
     <t>88,17%</t>
   </si>
   <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -248,55 +248,55 @@
     <t>7,59%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
   </si>
   <si>
     <t>8,25%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
   </si>
   <si>
     <t>7,78%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
   </si>
   <si>
     <t>92,41%</t>
   </si>
   <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
   </si>
   <si>
     <t>91,75%</t>
   </si>
   <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
   </si>
   <si>
     <t>92,22%</t>
   </si>
   <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -305,103 +305,109 @@
     <t>7,92%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
   </si>
   <si>
     <t>13,17%</t>
   </si>
   <si>
-    <t>21,63%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
   </si>
   <si>
     <t>9,98%</t>
   </si>
   <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
   </si>
   <si>
     <t>92,08%</t>
   </si>
   <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
   </si>
   <si>
     <t>86,83%</t>
   </si>
   <si>
-    <t>78,37%</t>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
   </si>
   <si>
     <t>90,02%</t>
   </si>
   <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
   </si>
   <si>
     <t>9,21%</t>
   </si>
   <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
   </si>
   <si>
     <t>10,73%</t>
   </si>
   <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
   </si>
   <si>
     <t>9,7%</t>
   </si>
   <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
   </si>
   <si>
     <t>90,79%</t>
   </si>
   <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
   </si>
   <si>
     <t>89,27%</t>
   </si>
   <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
   </si>
   <si>
     <t>90,3%</t>
   </si>
   <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -434,10 +440,10 @@
     <t>9,07%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -446,19 +452,19 @@
     <t>6,19%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
   </si>
   <si>
     <t>90,93%</t>
   </si>
   <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
   </si>
   <si>
     <t>87,39%</t>
@@ -467,16 +473,16 @@
     <t>93,81%</t>
   </si>
   <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
   </si>
   <si>
     <t>6,09%</t>
   </si>
   <si>
-    <t>18,27%</t>
+    <t>19,83%</t>
   </si>
   <si>
     <t>7,93%</t>
@@ -485,13 +491,13 @@
     <t>3,52%</t>
   </si>
   <si>
-    <t>12,21%</t>
+    <t>10,71%</t>
   </si>
   <si>
     <t>93,91%</t>
   </si>
   <si>
-    <t>81,73%</t>
+    <t>80,17%</t>
   </si>
   <si>
     <t>92,07%</t>
@@ -500,145 +506,139 @@
     <t>96,48%</t>
   </si>
   <si>
-    <t>87,79%</t>
+    <t>89,29%</t>
   </si>
   <si>
     <t>4,61%</t>
   </si>
   <si>
-    <t>14,67%</t>
+    <t>15,4%</t>
   </si>
   <si>
     <t>3,19%</t>
   </si>
   <si>
-    <t>16,6%</t>
+    <t>14,41%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
   </si>
   <si>
     <t>95,39%</t>
   </si>
   <si>
-    <t>85,33%</t>
+    <t>84,6%</t>
   </si>
   <si>
     <t>96,81%</t>
   </si>
   <si>
-    <t>83,4%</t>
+    <t>85,59%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
   </si>
   <si>
     <t>95,26%</t>
   </si>
   <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
   </si>
   <si>
     <t>5,49%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
   </si>
   <si>
     <t>4,4%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
   </si>
   <si>
     <t>94,51%</t>
   </si>
   <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
   </si>
   <si>
     <t>97,16%</t>
   </si>
   <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
   </si>
   <si>
     <t>95,6%</t>
   </si>
   <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
   </si>
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2016 (Tasa respuesta: 8,05%)</t>
@@ -650,13 +650,13 @@
     <t>13,3%</t>
   </si>
   <si>
-    <t>57,97%</t>
+    <t>55,78%</t>
   </si>
   <si>
     <t>5,75%</t>
   </si>
   <si>
-    <t>25,39%</t>
+    <t>29,28%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -665,85 +665,91 @@
     <t>86,7%</t>
   </si>
   <si>
-    <t>42,03%</t>
+    <t>44,22%</t>
   </si>
   <si>
     <t>94,25%</t>
   </si>
   <si>
-    <t>74,61%</t>
+    <t>70,72%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>13,57%</t>
+    <t>11,5%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
+    <t>8,89%</t>
+  </si>
+  <si>
     <t>97,33%</t>
   </si>
   <si>
-    <t>86,43%</t>
+    <t>88,5%</t>
   </si>
   <si>
     <t>98,23%</t>
   </si>
   <si>
+    <t>91,11%</t>
+  </si>
+  <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
   </si>
   <si>
     <t>6,16%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
   </si>
   <si>
     <t>96,76%</t>
   </si>
   <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
   </si>
   <si>
     <t>93,84%</t>
   </si>
   <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
   </si>
   <si>
     <t>95,69%</t>
   </si>
   <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
   </si>
   <si>
     <t>2,79%</t>
@@ -752,37 +758,25 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>7,18%</t>
-  </si>
-  <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>4,26%</t>
+    <t>4,79%</t>
   </si>
   <si>
     <t>97,21%</t>
   </si>
   <si>
-    <t>92,82%</t>
-  </si>
-  <si>
     <t>99,16%</t>
   </si>
   <si>
     <t>97,05%</t>
   </si>
   <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
+    <t>95,21%</t>
   </si>
   <si>
     <t>99,47%</t>
@@ -791,91 +785,103 @@
     <t>5,37%</t>
   </si>
   <si>
-    <t>12,39%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>9,75%</t>
+    <t>8,49%</t>
   </si>
   <si>
     <t>3,78%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
   </si>
   <si>
     <t>94,63%</t>
   </si>
   <si>
-    <t>87,61%</t>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
   </si>
   <si>
     <t>98,34%</t>
   </si>
   <si>
-    <t>90,25%</t>
+    <t>91,51%</t>
   </si>
   <si>
     <t>96,22%</t>
   </si>
   <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
   </si>
   <si>
     <t>3,49%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>4,84%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
   </si>
   <si>
     <t>96,51%</t>
   </si>
   <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
   </si>
   <si>
     <t>97,53%</t>
   </si>
   <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
   </si>
   <si>
     <t>96,9%</t>
   </si>
   <si>
-    <t>95,16%</t>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
   </si>
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2023 (Tasa respuesta: 9,29%)</t>
@@ -884,7 +890,7 @@
     <t>15,37%</t>
   </si>
   <si>
-    <t>47,1%</t>
+    <t>46,08%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -893,13 +899,13 @@
     <t>8,56%</t>
   </si>
   <si>
-    <t>28,16%</t>
+    <t>23,98%</t>
   </si>
   <si>
     <t>84,63%</t>
   </si>
   <si>
-    <t>52,9%</t>
+    <t>53,92%</t>
   </si>
   <si>
     <t>89,47%</t>
@@ -908,247 +914,265 @@
     <t>91,44%</t>
   </si>
   <si>
-    <t>71,84%</t>
+    <t>76,02%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
   </si>
   <si>
     <t>8,5%</t>
   </si>
   <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
   </si>
   <si>
     <t>87,46%</t>
   </si>
   <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
   </si>
   <si>
     <t>96,59%</t>
   </si>
   <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
   </si>
   <si>
     <t>91,5%</t>
   </si>
   <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
   </si>
   <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
+    <t>10,61%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
   </si>
   <si>
     <t>87,2%</t>
   </si>
   <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
   </si>
   <si>
     <t>94,53%</t>
   </si>
   <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
+    <t>89,39%</t>
   </si>
   <si>
     <t>90,74%</t>
   </si>
   <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
   </si>
   <si>
     <t>8,42%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
+    <t>18,78%</t>
   </si>
   <si>
     <t>16,28%</t>
   </si>
   <si>
-    <t>29,66%</t>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
   </si>
   <si>
     <t>12,97%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
   </si>
   <si>
     <t>91,58%</t>
   </si>
   <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
+    <t>81,22%</t>
   </si>
   <si>
     <t>83,72%</t>
   </si>
   <si>
-    <t>70,34%</t>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
   </si>
   <si>
     <t>87,03%</t>
   </si>
   <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
   </si>
   <si>
     <t>9,08%</t>
   </si>
   <si>
-    <t>4,79%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
   </si>
   <si>
     <t>8,62%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
   </si>
   <si>
     <t>91,88%</t>
   </si>
   <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
   </si>
   <si>
     <t>90,92%</t>
   </si>
   <si>
-    <t>95,21%</t>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
   </si>
   <si>
     <t>91,38%</t>
   </si>
   <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
   </si>
   <si>
     <t>10,76%</t>
   </si>
   <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
   </si>
   <si>
     <t>9,64%</t>
   </si>
   <si>
-    <t>12,26%</t>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
   </si>
   <si>
     <t>89,24%</t>
   </si>
   <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
     <t>91,46%</t>
   </si>
   <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
   </si>
   <si>
     <t>90,36%</t>
   </si>
   <si>
-    <t>87,74%</t>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
   </si>
 </sst>
 </file>
@@ -1560,7 +1584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D940F5-E80D-4CBC-B79B-63CD9071DB4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A989C9-65F0-4900-BDC0-5D0212698F5C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2322,10 +2346,10 @@
         <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -2334,13 +2358,13 @@
         <v>22518</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,13 +2379,13 @@
         <v>126192</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>74</v>
@@ -2370,13 +2394,13 @@
         <v>76890</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>200</v>
@@ -2385,13 +2409,13 @@
         <v>203082</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,13 +2483,13 @@
         <v>43508</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -2474,13 +2498,13 @@
         <v>23625</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -2489,13 +2513,13 @@
         <v>67134</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,13 +2534,13 @@
         <v>428797</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>192</v>
@@ -2525,13 +2549,13 @@
         <v>196496</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>602</v>
@@ -2540,13 +2564,13 @@
         <v>625293</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,7 +2626,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +2647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C11667-0001-4F6D-BBD0-B9C969617B41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19643952-0B8B-4B90-9FD7-A5416AE6248F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2640,7 +2664,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2750,10 +2774,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2765,10 +2789,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2780,10 +2804,10 @@
         <v>15</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,7 +2825,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -2816,7 +2840,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -2831,7 +2855,7 @@
         <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>30</v>
@@ -2902,13 +2926,13 @@
         <v>2899</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2920,10 +2944,10 @@
         <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2932,13 +2956,13 @@
         <v>2899</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2977,13 @@
         <v>29067</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -2971,7 +2995,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -2983,13 +3007,13 @@
         <v>43913</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +3081,13 @@
         <v>2071</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3075,10 +3099,10 @@
         <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3087,13 +3111,13 @@
         <v>2071</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,10 +3132,10 @@
         <v>31939</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -3126,7 +3150,7 @@
         <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -3138,10 +3162,10 @@
         <v>56727</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>26</v>
@@ -3212,13 +3236,13 @@
         <v>1934</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3227,13 +3251,13 @@
         <v>998</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3242,13 +3266,13 @@
         <v>2932</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,10 +3287,10 @@
         <v>40000</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -3278,10 +3302,10 @@
         <v>30239</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -3293,13 +3317,13 @@
         <v>70239</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,13 +3391,13 @@
         <v>923</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3382,13 +3406,13 @@
         <v>1852</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3397,13 +3421,13 @@
         <v>2774</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,10 +3442,10 @@
         <v>31330</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -3433,7 +3457,7 @@
         <v>24472</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>178</v>
@@ -3665,7 +3689,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3686,7 +3710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3D1CB7-1764-420E-B5CF-129362E51FAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AA5888-F2B8-4357-BB83-5D10F63663DB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3813,7 +3837,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>201</v>
@@ -3983,10 +4007,10 @@
         <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4001,7 +4025,7 @@
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>87</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,10 +4040,10 @@
         <v>45377</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -4034,7 +4058,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -4046,10 +4070,10 @@
         <v>69162</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>26</v>
@@ -4120,13 +4144,13 @@
         <v>3143</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4135,13 +4159,13 @@
         <v>3425</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4150,13 +4174,13 @@
         <v>6568</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4195,13 @@
         <v>93841</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H11" s="7">
         <v>49</v>
@@ -4186,13 +4210,13 @@
         <v>52127</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M11" s="7">
         <v>131</v>
@@ -4201,13 +4225,13 @@
         <v>145967</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,13 +4299,13 @@
         <v>3064</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4293,10 +4317,10 @@
         <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -4305,7 +4329,7 @@
         <v>3064</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>239</v>
+        <v>137</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>240</v>
@@ -4329,10 +4353,10 @@
         <v>242</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H14" s="7">
         <v>64</v>
@@ -4344,7 +4368,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -4356,13 +4380,13 @@
         <v>171618</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,13 +4454,13 @@
         <v>4749</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4445,13 +4469,13 @@
         <v>1095</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -4460,13 +4484,13 @@
         <v>5844</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,13 +4505,13 @@
         <v>83661</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>60</v>
@@ -4618,10 +4642,10 @@
         <v>269</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,13 +4660,13 @@
         <v>337798</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H20" s="7">
         <v>202</v>
@@ -4651,13 +4675,13 @@
         <v>210964</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M20" s="7">
         <v>512</v>
@@ -4666,13 +4690,13 @@
         <v>548761</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,7 +4752,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4749,7 +4773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB343D2-4A96-4C68-964E-ED81F230589D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B7DE00-504A-4423-8E52-C4065D694FF4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4766,7 +4790,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4873,13 +4897,13 @@
         <v>2184</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4891,10 +4915,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4903,13 +4927,13 @@
         <v>2184</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,10 +4948,10 @@
         <v>12029</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -4942,7 +4966,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -4954,10 +4978,10 @@
         <v>23319</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -5028,13 +5052,13 @@
         <v>7562</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -5043,13 +5067,13 @@
         <v>1638</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -5058,13 +5082,13 @@
         <v>9201</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,13 +5103,13 @@
         <v>52750</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H8" s="7">
         <v>70</v>
@@ -5094,13 +5118,13 @@
         <v>46356</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M8" s="7">
         <v>120</v>
@@ -5109,13 +5133,13 @@
         <v>99105</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,13 +5207,13 @@
         <v>14911</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -5198,13 +5222,13 @@
         <v>5977</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>312</v>
+        <v>133</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -5213,13 +5237,13 @@
         <v>20887</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5234,13 +5258,13 @@
         <v>101539</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H11" s="7">
         <v>138</v>
@@ -5249,13 +5273,13 @@
         <v>103255</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>322</v>
+        <v>141</v>
       </c>
       <c r="M11" s="7">
         <v>235</v>
@@ -5341,10 +5365,10 @@
         <v>326</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -5353,10 +5377,10 @@
         <v>12991</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>330</v>
@@ -5395,7 +5419,7 @@
         <v>335</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>336</v>
+        <v>193</v>
       </c>
       <c r="H14" s="7">
         <v>73</v>
@@ -5404,13 +5428,13 @@
         <v>66787</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>126</v>
@@ -5514,7 +5538,7 @@
         <v>346</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>157</v>
+        <v>347</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -5523,13 +5547,13 @@
         <v>18697</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5568,13 @@
         <v>95563</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H17" s="7">
         <v>135</v>
@@ -5559,13 +5583,13 @@
         <v>102662</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>164</v>
+        <v>355</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M17" s="7">
         <v>228</v>
@@ -5574,13 +5598,13 @@
         <v>198224</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,13 +5672,13 @@
         <v>37986</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>187</v>
+        <v>361</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -5663,13 +5687,13 @@
         <v>30860</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="M19" s="7">
         <v>76</v>
@@ -5678,13 +5702,13 @@
         <v>68846</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>56</v>
+        <v>367</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5723,13 @@
         <v>315032</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>195</v>
+        <v>371</v>
       </c>
       <c r="H20" s="7">
         <v>433</v>
@@ -5714,13 +5738,13 @@
         <v>330351</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="M20" s="7">
         <v>736</v>
@@ -5729,13 +5753,13 @@
         <v>645382</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>66</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,7 +5815,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6907S1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6907S1-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EB27282-A90A-48AF-8E57-568BA5E85261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72B80132-554D-4675-82D7-8810AD8531B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C53BE554-DF72-492B-A107-63D9982750F3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C6EAA89F-3B06-4B5F-9B08-236F14C59DF3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="339">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -68,123 +68,72 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -242,7 +191,7 @@
     <t>92,46%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>7,59%</t>
@@ -416,366 +365,336 @@
     <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2012 (Tasa respuesta: 3,57%)</t>
   </si>
   <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
   </si>
   <si>
     <t>98,25%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
     <t>95,21%</t>
   </si>
   <si>
@@ -887,292 +806,256 @@
     <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2023 (Tasa respuesta: 9,29%)</t>
   </si>
   <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
   </si>
   <si>
     <t>8,56%</t>
   </si>
   <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
   </si>
   <si>
     <t>91,44%</t>
   </si>
   <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
   </si>
   <si>
     <t>3,51%</t>
   </si>
   <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
   </si>
   <si>
     <t>96,49%</t>
   </si>
   <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
 </sst>
 </file>
@@ -1584,8 +1467,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A989C9-65F0-4900-BDC0-5D0212698F5C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F061A7-FB67-48D4-9992-4E882297931C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1702,10 +1585,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>3043</v>
+        <v>7065</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1717,10 +1600,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>851</v>
+        <v>1846</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1732,10 +1615,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>3894</v>
+        <v>8912</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1753,10 +1636,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D5" s="7">
-        <v>12028</v>
+        <v>72266</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1768,10 +1651,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="I5" s="7">
-        <v>5205</v>
+        <v>30395</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1783,10 +1666,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="N5" s="7">
-        <v>17232</v>
+        <v>102660</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1804,10 +1687,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="D6" s="7">
-        <v>15071</v>
+        <v>79331</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1819,10 +1702,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I6" s="7">
-        <v>6056</v>
+        <v>32241</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1834,10 +1717,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="N6" s="7">
-        <v>21126</v>
+        <v>111572</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1857,10 +1740,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>4023</v>
+        <v>17244</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1872,34 +1755,34 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>995</v>
+        <v>6279</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N7" s="7">
-        <v>5018</v>
+        <v>23523</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1908,49 +1791,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="D8" s="7">
-        <v>60238</v>
+        <v>128737</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I8" s="7">
-        <v>25191</v>
+        <v>46518</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="N8" s="7">
-        <v>85428</v>
+        <v>175254</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1959,10 +1842,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="D9" s="7">
-        <v>64261</v>
+        <v>145981</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1974,10 +1857,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I9" s="7">
-        <v>26186</v>
+        <v>52797</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1989,10 +1872,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="N9" s="7">
-        <v>90446</v>
+        <v>198777</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2006,55 +1889,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>17244</v>
+        <v>8342</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>6279</v>
+        <v>3839</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="N10" s="7">
-        <v>23523</v>
+        <v>12181</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,49 +1946,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="D11" s="7">
-        <v>128737</v>
+        <v>101602</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" s="7">
-        <v>46518</v>
+        <v>42694</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="N11" s="7">
-        <v>175254</v>
+        <v>144296</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2114,10 +1997,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="D12" s="7">
-        <v>145981</v>
+        <v>109944</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2129,10 +2012,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I12" s="7">
-        <v>52797</v>
+        <v>46533</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2144,10 +2027,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>198777</v>
+        <v>156477</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2161,55 +2044,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>8342</v>
+        <v>10857</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>3839</v>
+        <v>11661</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N13" s="7">
-        <v>12181</v>
+        <v>22518</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,49 +2101,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="D14" s="7">
-        <v>101602</v>
+        <v>126192</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="I14" s="7">
-        <v>42694</v>
+        <v>76890</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="N14" s="7">
-        <v>144296</v>
+        <v>203082</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2269,10 +2152,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="D15" s="7">
-        <v>109944</v>
+        <v>137049</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2284,10 +2167,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="I15" s="7">
-        <v>46533</v>
+        <v>88551</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2299,10 +2182,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c r="N15" s="7">
-        <v>156477</v>
+        <v>225600</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2316,55 +2199,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D16" s="7">
-        <v>10857</v>
+        <v>43508</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I16" s="7">
-        <v>11661</v>
+        <v>23625</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="N16" s="7">
-        <v>22518</v>
+        <v>67134</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,49 +2256,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>126</v>
+        <v>410</v>
       </c>
       <c r="D17" s="7">
-        <v>126192</v>
+        <v>428797</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="I17" s="7">
-        <v>76890</v>
+        <v>196496</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>200</v>
+        <v>602</v>
       </c>
       <c r="N17" s="7">
-        <v>203082</v>
+        <v>625293</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,10 +2307,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>138</v>
+        <v>450</v>
       </c>
       <c r="D18" s="7">
-        <v>137049</v>
+        <v>472305</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2439,10 +2322,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="I18" s="7">
-        <v>88551</v>
+        <v>220121</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2454,10 +2337,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>223</v>
+        <v>665</v>
       </c>
       <c r="N18" s="7">
-        <v>225600</v>
+        <v>692427</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2470,171 +2353,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>40</v>
-      </c>
-      <c r="D19" s="7">
-        <v>43508</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>23</v>
-      </c>
-      <c r="I19" s="7">
-        <v>23625</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>63</v>
-      </c>
-      <c r="N19" s="7">
-        <v>67134</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>410</v>
-      </c>
-      <c r="D20" s="7">
-        <v>428797</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>192</v>
-      </c>
-      <c r="I20" s="7">
-        <v>196496</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>602</v>
-      </c>
-      <c r="N20" s="7">
-        <v>625293</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>450</v>
-      </c>
-      <c r="D21" s="7">
-        <v>472305</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>215</v>
-      </c>
-      <c r="I21" s="7">
-        <v>220121</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>665</v>
-      </c>
-      <c r="N21" s="7">
-        <v>692427</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2647,8 +2374,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19643952-0B8B-4B90-9FD7-A5416AE6248F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DC09D1-5A78-4DE4-8E4A-9A04DBA65E6F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2664,7 +2391,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2765,19 +2492,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>2899</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2789,25 +2516,25 @@
         <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2899</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,49 +2543,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7">
-        <v>2414</v>
+        <v>31481</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I5" s="7">
-        <v>2965</v>
+        <v>17811</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="N5" s="7">
-        <v>5379</v>
+        <v>49293</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,10 +2594,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D6" s="7">
-        <v>2414</v>
+        <v>34380</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2882,10 +2609,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I6" s="7">
-        <v>2965</v>
+        <v>17811</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2897,10 +2624,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="N6" s="7">
-        <v>5379</v>
+        <v>52192</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2920,19 +2647,19 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>2899</v>
+        <v>2071</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2944,25 +2671,25 @@
         <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>2899</v>
+        <v>2071</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,49 +2698,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8" s="7">
-        <v>29067</v>
+        <v>31939</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I8" s="7">
-        <v>14846</v>
+        <v>24788</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M8" s="7">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N8" s="7">
-        <v>43913</v>
+        <v>56727</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,10 +2749,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="7">
-        <v>31966</v>
+        <v>34010</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3037,10 +2764,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I9" s="7">
-        <v>14846</v>
+        <v>24788</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3052,10 +2779,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="N9" s="7">
-        <v>46812</v>
+        <v>58798</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3069,7 +2796,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3078,46 +2805,46 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>2071</v>
+        <v>1934</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>998</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>2071</v>
+        <v>2932</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,49 +2853,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D11" s="7">
-        <v>31939</v>
+        <v>40000</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I11" s="7">
-        <v>24788</v>
+        <v>30239</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="M11" s="7">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="N11" s="7">
-        <v>56727</v>
+        <v>70239</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,10 +2904,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D12" s="7">
-        <v>34010</v>
+        <v>41934</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3192,10 +2919,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I12" s="7">
-        <v>24788</v>
+        <v>31237</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3207,10 +2934,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="N12" s="7">
-        <v>58798</v>
+        <v>73171</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3224,55 +2951,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>1934</v>
+        <v>923</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>998</v>
+        <v>1852</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>2932</v>
+        <v>2774</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,49 +3008,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D14" s="7">
-        <v>40000</v>
+        <v>31330</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H14" s="7">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I14" s="7">
-        <v>30239</v>
+        <v>24472</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M14" s="7">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="N14" s="7">
-        <v>70239</v>
+        <v>55803</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,10 +3059,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D15" s="7">
-        <v>41934</v>
+        <v>32253</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3347,10 +3074,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I15" s="7">
-        <v>31237</v>
+        <v>26324</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3362,10 +3089,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="N15" s="7">
-        <v>73171</v>
+        <v>58577</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3379,55 +3106,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>923</v>
+        <v>7827</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>1852</v>
+        <v>2849</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="N16" s="7">
-        <v>2774</v>
+        <v>10676</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,49 +3163,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="D17" s="7">
-        <v>31330</v>
+        <v>134750</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H17" s="7">
+        <v>91</v>
+      </c>
+      <c r="I17" s="7">
+        <v>97312</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" s="7">
+        <v>221</v>
+      </c>
+      <c r="N17" s="7">
+        <v>232062</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="7">
-        <v>24</v>
-      </c>
-      <c r="I17" s="7">
-        <v>24472</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" s="7">
-        <v>55</v>
-      </c>
-      <c r="N17" s="7">
-        <v>55803</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,10 +3214,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="D18" s="7">
-        <v>32253</v>
+        <v>142577</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3502,10 +3229,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="I18" s="7">
-        <v>26324</v>
+        <v>100161</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3517,10 +3244,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>58</v>
+        <v>232</v>
       </c>
       <c r="N18" s="7">
-        <v>58577</v>
+        <v>242738</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3533,171 +3260,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>8</v>
-      </c>
-      <c r="D19" s="7">
-        <v>7827</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2849</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="M19" s="7">
-        <v>11</v>
-      </c>
-      <c r="N19" s="7">
-        <v>10676</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>130</v>
-      </c>
-      <c r="D20" s="7">
-        <v>134750</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H20" s="7">
-        <v>91</v>
-      </c>
-      <c r="I20" s="7">
-        <v>97312</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="M20" s="7">
-        <v>221</v>
-      </c>
-      <c r="N20" s="7">
-        <v>232062</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>138</v>
-      </c>
-      <c r="D21" s="7">
-        <v>142577</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>94</v>
-      </c>
-      <c r="I21" s="7">
-        <v>100161</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>232</v>
-      </c>
-      <c r="N21" s="7">
-        <v>242738</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3710,8 +3281,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AA5888-F2B8-4357-BB83-5D10F63663DB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEC2E03-D881-4996-93E4-E3F06894C7F9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3727,7 +3298,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3828,19 +3399,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1247</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3849,28 +3420,28 @@
         <v>815</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>815</v>
+        <v>2062</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,46 +3450,46 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D5" s="7">
-        <v>8049</v>
+        <v>53426</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>5315</v>
+        <v>29100</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="N5" s="7">
-        <v>13364</v>
+        <v>82526</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -3930,10 +3501,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D6" s="7">
-        <v>8049</v>
+        <v>54673</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3945,10 +3516,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I6" s="7">
-        <v>6130</v>
+        <v>29915</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3960,10 +3531,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="N6" s="7">
-        <v>14179</v>
+        <v>84588</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3983,49 +3554,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>1247</v>
+        <v>3143</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>3425</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>1247</v>
+        <v>6568</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,49 +3605,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="D8" s="7">
-        <v>45377</v>
+        <v>93841</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="H8" s="7">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I8" s="7">
-        <v>23785</v>
+        <v>52127</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>204</v>
       </c>
       <c r="M8" s="7">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="N8" s="7">
-        <v>69162</v>
+        <v>145967</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>26</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,10 +3656,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D9" s="7">
-        <v>46624</v>
+        <v>96984</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4100,10 +3671,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I9" s="7">
-        <v>23785</v>
+        <v>55552</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4115,10 +3686,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="N9" s="7">
-        <v>70409</v>
+        <v>152535</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4132,7 +3703,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4141,46 +3712,46 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>3143</v>
+        <v>3064</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M10" s="7">
         <v>3</v>
       </c>
-      <c r="I10" s="7">
-        <v>3425</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M10" s="7">
-        <v>6</v>
-      </c>
       <c r="N10" s="7">
-        <v>6568</v>
+        <v>3064</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,49 +3760,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D11" s="7">
-        <v>93841</v>
+        <v>106871</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="H11" s="7">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="I11" s="7">
-        <v>52127</v>
+        <v>64747</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>231</v>
+        <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>233</v>
+        <v>30</v>
       </c>
       <c r="M11" s="7">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="N11" s="7">
-        <v>145967</v>
+        <v>171618</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,10 +3811,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D12" s="7">
-        <v>96984</v>
+        <v>109935</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4255,10 +3826,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I12" s="7">
-        <v>55552</v>
+        <v>64747</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4270,10 +3841,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="N12" s="7">
-        <v>152535</v>
+        <v>174682</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4287,55 +3858,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>3064</v>
+        <v>4749</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1095</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>3064</v>
+        <v>5844</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>137</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,49 +3915,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D14" s="7">
-        <v>106871</v>
+        <v>83661</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I14" s="7">
-        <v>64747</v>
+        <v>64988</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="M14" s="7">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="N14" s="7">
-        <v>171618</v>
+        <v>148649</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>233</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4395,10 +3966,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D15" s="7">
-        <v>109935</v>
+        <v>88410</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4410,10 +3981,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I15" s="7">
-        <v>64747</v>
+        <v>66083</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4425,10 +3996,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="N15" s="7">
-        <v>174682</v>
+        <v>154493</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4442,55 +4013,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7">
+        <v>12203</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H16" s="7">
         <v>5</v>
       </c>
-      <c r="D16" s="7">
-        <v>4749</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
       <c r="I16" s="7">
-        <v>1095</v>
+        <v>5334</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N16" s="7">
-        <v>5844</v>
+        <v>17538</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,49 +4070,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="D17" s="7">
-        <v>83661</v>
+        <v>337798</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="H17" s="7">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="I17" s="7">
-        <v>64988</v>
+        <v>210964</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>26</v>
+        <v>250</v>
       </c>
       <c r="M17" s="7">
-        <v>139</v>
+        <v>512</v>
       </c>
       <c r="N17" s="7">
-        <v>148649</v>
+        <v>548761</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,10 +4121,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>84</v>
+        <v>322</v>
       </c>
       <c r="D18" s="7">
-        <v>88410</v>
+        <v>350001</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4565,10 +4136,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c r="I18" s="7">
-        <v>66083</v>
+        <v>216298</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4580,10 +4151,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>145</v>
+        <v>529</v>
       </c>
       <c r="N18" s="7">
-        <v>154493</v>
+        <v>566299</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4596,171 +4167,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>12</v>
-      </c>
-      <c r="D19" s="7">
-        <v>12203</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="H19" s="7">
-        <v>5</v>
-      </c>
-      <c r="I19" s="7">
-        <v>5334</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="M19" s="7">
-        <v>17</v>
-      </c>
-      <c r="N19" s="7">
-        <v>17538</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>310</v>
-      </c>
-      <c r="D20" s="7">
-        <v>337798</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H20" s="7">
-        <v>202</v>
-      </c>
-      <c r="I20" s="7">
-        <v>210964</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="M20" s="7">
-        <v>512</v>
-      </c>
-      <c r="N20" s="7">
-        <v>548761</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>322</v>
-      </c>
-      <c r="D21" s="7">
-        <v>350001</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>207</v>
-      </c>
-      <c r="I21" s="7">
-        <v>216298</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>529</v>
-      </c>
-      <c r="N21" s="7">
-        <v>566299</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4773,8 +4188,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B7DE00-504A-4423-8E52-C4065D694FF4}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0805EAFD-CE48-4589-8EBB-7FE0F497109A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4790,7 +4205,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4891,49 +4306,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>2184</v>
+        <v>9455</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>15</v>
+        <v>256</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1519</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>259</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>2184</v>
+        <v>10974</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>262</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,49 +4357,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D5" s="7">
-        <v>12029</v>
+        <v>61760</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>26</v>
+        <v>266</v>
       </c>
       <c r="H5" s="7">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="I5" s="7">
-        <v>11291</v>
+        <v>53162</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>26</v>
+        <v>267</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>30</v>
+        <v>269</v>
       </c>
       <c r="M5" s="7">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="N5" s="7">
-        <v>23319</v>
+        <v>114923</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,10 +4408,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D6" s="7">
-        <v>14213</v>
+        <v>71215</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5008,10 +4423,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I6" s="7">
-        <v>11291</v>
+        <v>54681</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5023,10 +4438,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="N6" s="7">
-        <v>25503</v>
+        <v>125897</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5046,49 +4461,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>7562</v>
+        <v>14366</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>293</v>
+        <v>167</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>1638</v>
+        <v>5495</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="N7" s="7">
-        <v>9201</v>
+        <v>19860</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,49 +4512,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="D8" s="7">
-        <v>52750</v>
+        <v>97617</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>303</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="I8" s="7">
-        <v>46356</v>
+        <v>93235</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="M8" s="7">
-        <v>120</v>
+        <v>235</v>
       </c>
       <c r="N8" s="7">
-        <v>99105</v>
+        <v>190852</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,10 +4563,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="D9" s="7">
-        <v>60312</v>
+        <v>111983</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5163,10 +4578,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="I9" s="7">
-        <v>47994</v>
+        <v>98730</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5178,10 +4593,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="N9" s="7">
-        <v>108306</v>
+        <v>210712</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5195,55 +4610,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>14911</v>
+        <v>4734</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>5977</v>
+        <v>12188</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>133</v>
+        <v>293</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="M10" s="7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N10" s="7">
-        <v>20887</v>
+        <v>16921</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5252,49 +4667,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="D11" s="7">
-        <v>101539</v>
+        <v>50543</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="H11" s="7">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="I11" s="7">
-        <v>103255</v>
+        <v>84720</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>141</v>
+        <v>303</v>
       </c>
       <c r="M11" s="7">
-        <v>235</v>
+        <v>126</v>
       </c>
       <c r="N11" s="7">
-        <v>204795</v>
+        <v>135263</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,10 +4718,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="D12" s="7">
-        <v>116450</v>
+        <v>55277</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5318,25 +4733,25 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
+        <v>88</v>
+      </c>
+      <c r="I12" s="7">
+        <v>96908</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
         <v>146</v>
       </c>
-      <c r="I12" s="7">
-        <v>109232</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="7">
-        <v>257</v>
-      </c>
       <c r="N12" s="7">
-        <v>225682</v>
+        <v>152184</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5350,55 +4765,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>4886</v>
+        <v>8222</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>183</v>
+        <v>308</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>12991</v>
+        <v>9636</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="M13" s="7">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N13" s="7">
-        <v>17877</v>
+        <v>17858</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,49 +4822,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D14" s="7">
-        <v>53151</v>
+        <v>92808</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>193</v>
+        <v>318</v>
       </c>
       <c r="H14" s="7">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="I14" s="7">
-        <v>66787</v>
+        <v>94260</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="M14" s="7">
-        <v>126</v>
+        <v>228</v>
       </c>
       <c r="N14" s="7">
-        <v>119939</v>
+        <v>187068</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5458,10 +4873,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="D15" s="7">
-        <v>58037</v>
+        <v>101030</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5473,10 +4888,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="I15" s="7">
-        <v>79778</v>
+        <v>103896</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5488,10 +4903,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="N15" s="7">
-        <v>137816</v>
+        <v>204926</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5505,55 +4920,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D16" s="7">
-        <v>8443</v>
+        <v>36776</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="H16" s="7">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="I16" s="7">
-        <v>10254</v>
+        <v>28837</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>346</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="M16" s="7">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="N16" s="7">
-        <v>18697</v>
+        <v>65613</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,49 +4977,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>93</v>
+        <v>303</v>
       </c>
       <c r="D17" s="7">
-        <v>95563</v>
+        <v>302729</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="H17" s="7">
-        <v>135</v>
+        <v>433</v>
       </c>
       <c r="I17" s="7">
-        <v>102662</v>
+        <v>325378</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
-        <v>228</v>
+        <v>736</v>
       </c>
       <c r="N17" s="7">
-        <v>198224</v>
+        <v>628107</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,10 +5028,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>101</v>
+        <v>338</v>
       </c>
       <c r="D18" s="7">
-        <v>104006</v>
+        <v>339505</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5628,10 +5043,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>150</v>
+        <v>474</v>
       </c>
       <c r="I18" s="7">
-        <v>112916</v>
+        <v>354215</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5643,10 +5058,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>251</v>
+        <v>812</v>
       </c>
       <c r="N18" s="7">
-        <v>216921</v>
+        <v>693720</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5659,171 +5074,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>35</v>
-      </c>
-      <c r="D19" s="7">
-        <v>37986</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H19" s="7">
-        <v>41</v>
-      </c>
-      <c r="I19" s="7">
-        <v>30860</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="M19" s="7">
-        <v>76</v>
-      </c>
-      <c r="N19" s="7">
-        <v>68846</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>303</v>
-      </c>
-      <c r="D20" s="7">
-        <v>315032</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="H20" s="7">
-        <v>433</v>
-      </c>
-      <c r="I20" s="7">
-        <v>330351</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="M20" s="7">
-        <v>736</v>
-      </c>
-      <c r="N20" s="7">
-        <v>645382</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>338</v>
-      </c>
-      <c r="D21" s="7">
-        <v>353018</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>474</v>
-      </c>
-      <c r="I21" s="7">
-        <v>361211</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>812</v>
-      </c>
-      <c r="N21" s="7">
-        <v>714228</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
